--- a/biology/Botanique/Pourouma/Pourouma.xlsx
+++ b/biology/Botanique/Pourouma/Pourouma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pourouma est un genre de plantes à fleurs de la famille des Urticaceae (anciennement des Cecropiaceae). Il comprend 22 espèces natives des régions tropicales d'Amérique centrale et d'Amérique du Sud. L'espèce type est Pourouma guianensis Aubl.
 Ce sont des arbres. Les caractéristiques essentielles du genre sont d'avoir des fleurs dioïques disposées en corymbe et des feuilles alternes, trilobées ou palmées.
 Pourouma est voisin des genres Coussapoa et Cecropia.
-Certaines espèces, comme Pourouma cecropiifolia[2] ou encore Pourouma guianensis, P. mollis et P. acuminata[3], produisent des fruits comestibles appréciés, et sont parfois cultivés.
+Certaines espèces, comme Pourouma cecropiifolia ou encore Pourouma guianensis, P. mollis et P. acuminata, produisent des fruits comestibles appréciés, et sont parfois cultivés.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Flora Online (WFO)       (18 janvier 2022)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Flora Online (WFO)       (18 janvier 2022) :
 Pourouma acuminata Mart. ex Miq.
 Pourouma bicolor Mart.
 Pourouma bolivarensis C.C.Berg
@@ -546,7 +560,7 @@
 Pourouma tomentosa Mart. ex Miq.
 Pourouma velutina Mart. ex Miq.
 Pourouma villosa Trécul
-Selon GBIF       (18 janvier 2022)[5] :
+Selon GBIF       (18 janvier 2022) :
 Pourouma acuminata Mart.
 Pourouma acuminata Mart. ex Miq.
 Pourouma amacayacuensis Gaglioti &amp; Romaniuc
@@ -618,9 +632,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[6] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « POUROUMA. (Tabula 341.)
 Masculi flores deſiderantur
 CAL per nullum,
